--- a/endeca/Endeca_fields_not_brought_into_Argot.xlsx
+++ b/endeca/Endeca_fields_not_brought_into_Argot.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="145">
   <si>
     <t>Element name</t>
   </si>
@@ -446,13 +446,28 @@
   </si>
   <si>
     <t>Endeca values: open, IP restricted</t>
+  </si>
+  <si>
+    <t>New Titles</t>
+  </si>
+  <si>
+    <t>na -- is based on date_cataloged value</t>
+  </si>
+  <si>
+    <t>TD-366</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-366</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +479,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,10 +572,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -561,428 +585,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -992,22 +601,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1058,29 +651,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1523,22 +1093,45 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1568,10 +1161,380 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1580,6 +1543,69 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1595,52 +1621,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A1:M14"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Element name" dataDxfId="14"/>
-    <tableColumn id="2" name="Endeca dmod name" dataDxfId="13"/>
-    <tableColumn id="3" name="Facet on element?" dataDxfId="12"/>
-    <tableColumn id="4" name="Indexed in" dataDxfId="11"/>
-    <tableColumn id="5" name="Displayed Endeca?" dataDxfId="10"/>
-    <tableColumn id="6" name="Argot field" dataDxfId="9"/>
-    <tableColumn id="7" name="Argot display" dataDxfId="8"/>
-    <tableColumn id="8" name="Label" dataDxfId="7"/>
-    <tableColumn id="9" name="Display notes" dataDxfId="6"/>
-    <tableColumn id="10" name="indexed" dataDxfId="5"/>
-    <tableColumn id="11" name="Notes" dataDxfId="4"/>
-    <tableColumn id="12" name="Disposition" dataDxfId="3"/>
-    <tableColumn id="13" name="ticket" dataDxfId="2"/>
+    <tableColumn id="1" name="Element name" dataDxfId="33"/>
+    <tableColumn id="2" name="Endeca dmod name" dataDxfId="32"/>
+    <tableColumn id="3" name="Facet on element?" dataDxfId="31"/>
+    <tableColumn id="4" name="Indexed in" dataDxfId="30"/>
+    <tableColumn id="5" name="Displayed Endeca?" dataDxfId="29"/>
+    <tableColumn id="6" name="Argot field" dataDxfId="28"/>
+    <tableColumn id="7" name="Argot display" dataDxfId="27"/>
+    <tableColumn id="8" name="Label" dataDxfId="26"/>
+    <tableColumn id="9" name="Display notes" dataDxfId="25"/>
+    <tableColumn id="10" name="indexed" dataDxfId="24"/>
+    <tableColumn id="11" name="Notes" dataDxfId="23"/>
+    <tableColumn id="12" name="Disposition" dataDxfId="22"/>
+    <tableColumn id="13" name="ticket" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:M21"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Element name" dataDxfId="32"/>
-    <tableColumn id="2" name="Endeca dmod name" dataDxfId="31"/>
-    <tableColumn id="3" name="Facet on element?" dataDxfId="30"/>
-    <tableColumn id="4" name="Indexed in" dataDxfId="29"/>
-    <tableColumn id="5" name="Displayed Endeca?" dataDxfId="28"/>
-    <tableColumn id="6" name="Argot field" dataDxfId="27"/>
-    <tableColumn id="7" name="Argot display" dataDxfId="26"/>
-    <tableColumn id="8" name="Label" dataDxfId="25"/>
-    <tableColumn id="9" name="Display notes" dataDxfId="24"/>
-    <tableColumn id="10" name="indexed" dataDxfId="23"/>
-    <tableColumn id="11" name="Notes" dataDxfId="22"/>
-    <tableColumn id="12" name="Disposition" dataDxfId="21"/>
-    <tableColumn id="13" name="ticket" dataDxfId="20"/>
+    <tableColumn id="1" name="Element name" dataDxfId="15"/>
+    <tableColumn id="2" name="Endeca dmod name" dataDxfId="14"/>
+    <tableColumn id="3" name="Facet on element?" dataDxfId="13"/>
+    <tableColumn id="4" name="Indexed in" dataDxfId="12"/>
+    <tableColumn id="5" name="Displayed Endeca?" dataDxfId="11"/>
+    <tableColumn id="6" name="Argot field" dataDxfId="10"/>
+    <tableColumn id="7" name="Argot display" dataDxfId="9"/>
+    <tableColumn id="8" name="Label" dataDxfId="8"/>
+    <tableColumn id="9" name="Display notes" dataDxfId="7"/>
+    <tableColumn id="10" name="indexed" dataDxfId="6"/>
+    <tableColumn id="11" name="Notes" dataDxfId="5"/>
+    <tableColumn id="12" name="Disposition" dataDxfId="4"/>
+    <tableColumn id="13" name="ticket" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M14" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="38">
-  <autoFilter ref="A1:M14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:M15"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Element name"/>
     <tableColumn id="2" name="Endeca dmod name"/>
@@ -3418,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M14"/>
+      <selection activeCell="A15" sqref="A15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,10 +4038,54 @@
         <v>103</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/endeca/Endeca_fields_not_brought_into_Argot.xlsx
+++ b/endeca/Endeca_fields_not_brought_into_Argot.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="162">
   <si>
     <t>Element name</t>
   </si>
@@ -461,6 +461,57 @@
   </si>
   <si>
     <t>https://trlnmain.atlassian.net/browse/TD-366</t>
+  </si>
+  <si>
+    <t>Medical Subject</t>
+  </si>
+  <si>
+    <t>Medical Subject: Topic</t>
+  </si>
+  <si>
+    <t>subject_heading_mesh</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-131</t>
+  </si>
+  <si>
+    <t>Indexed Notes</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>split up into other fields</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-160</t>
+  </si>
+  <si>
+    <t>Collective Uniform Title</t>
+  </si>
+  <si>
+    <t>work_name_title</t>
+  </si>
+  <si>
+    <t>Related items &gt; ??</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-442</t>
+  </si>
+  <si>
+    <t>Main Uniform Title</t>
+  </si>
+  <si>
+    <t>Keyword, Keyword_Brief, Title, Title_Brief</t>
+  </si>
+  <si>
+    <t>Related works &gt; Other versions of this work</t>
+  </si>
+  <si>
+    <t>title; author; keyword</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-392</t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1716,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:M15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Element name"/>
     <tableColumn id="2" name="Endeca dmod name"/>
@@ -3444,10 +3495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:M15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,6 +4130,211 @@
         <v>144</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M15" r:id="rId1"/>

--- a/endeca/Endeca_fields_not_brought_into_Argot.xlsx
+++ b/endeca/Endeca_fields_not_brought_into_Argot.xlsx
@@ -645,16 +645,16 @@
   <dxfs count="39">
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1716,7 +1716,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="A1:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Element name"/>
@@ -3498,7 +3498,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/endeca/Endeca_fields_not_brought_into_Argot.xlsx
+++ b/endeca/Endeca_fields_not_brought_into_Argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="omitted" sheetId="1" r:id="rId1"/>
@@ -645,16 +645,16 @@
   <dxfs count="39">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1716,7 +1716,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Element name"/>
@@ -2002,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
@@ -3497,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:M21"/>
     </sheetView>
   </sheetViews>
